--- a/biology/Botanique/Micrairoideae/Micrairoideae.xlsx
+++ b/biology/Botanique/Micrairoideae/Micrairoideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Micrairoideae sont une sous-famille de plantes monocotylédones de la famille des Poaceae et de l'ordre des Poales.
-Cette sous-famille est présente dans les régions tropicales et subtropicales[1].
-Elle appartient au clade PACMAD, au sein duquel elle est le groupe frère de la sous-famille des Arundinoideae[2].
-Les Micrairoideae regroupent environ 190 espèces en neuf genres. Une classification phylogénétique des graminées reconnaît quatre lignées principales, classées au rang de tribus : Eriachneae, Hubbardieae, Isachneae et Micraireae. Seules les espèces de la tribu des Eriachneae (genres Eriachne et Pheidochloa) ont évolué vers la voie photosynthétique en C4[3].
+Cette sous-famille est présente dans les régions tropicales et subtropicales.
+Elle appartient au clade PACMAD, au sein duquel elle est le groupe frère de la sous-famille des Arundinoideae.
+Les Micrairoideae regroupent environ 190 espèces en neuf genres. Une classification phylogénétique des graminées reconnaît quatre lignées principales, classées au rang de tribus : Eriachneae, Hubbardieae, Isachneae et Micraireae. Seules les espèces de la tribu des Eriachneae (genres Eriachne et Pheidochloa) ont évolué vers la voie photosynthétique en C4.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste des tribus, genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (15 juin 2016)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (15 juin 2016) :
 tribu Eriachneae
 genre Eriachne
 Eriachne aristidea
